--- a/Casos de Prueba/Casos de prueba.xlsx
+++ b/Casos de Prueba/Casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Python\Coderhouse\ProyectoFinalSanchezPedro\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3960D947-DF94-4FBC-A892-E20111B0AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC74B15-DB08-41B3-886D-3493D516FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,39 +82,15 @@
     <t>-</t>
   </si>
   <si>
-    <t>Se consulta un pedido</t>
-  </si>
-  <si>
-    <t>dentro de la tab de hacer consultar buscamos el pedido 1 para chequear que todo funcione correctamente</t>
-  </si>
-  <si>
     <t>Caso #4</t>
   </si>
   <si>
     <t>Caso #5</t>
   </si>
   <si>
-    <t>Chequeamos que se redireccione en las redes sociales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probamos que al clickear en una red social se redireccione a la pagina de inicio de la misma </t>
-  </si>
-  <si>
-    <t>Agregar Producto</t>
-  </si>
-  <si>
-    <t>Procedemos a crear un producto nuevo para ver que todo funcione correctamente</t>
-  </si>
-  <si>
     <t>Caso #6</t>
   </si>
   <si>
-    <t>Eliminar Producto creado</t>
-  </si>
-  <si>
-    <t>Procedemos a eliminar un producto nuevo para ver que todo funcione correctamente</t>
-  </si>
-  <si>
     <t>Proyecto_Final_SanchezPedro</t>
   </si>
   <si>
@@ -137,6 +113,30 @@
   </si>
   <si>
     <t>Se ingresa a users/login/ y se intenta iniciar sesión con un usuario existente.</t>
+  </si>
+  <si>
+    <t>Cargado de un nuevo item</t>
+  </si>
+  <si>
+    <t>Se procede a cargar un nuevo item en la BD, por ejemplo una guitarra en BaseApp/guitarras/create/ y funciona correctamente</t>
+  </si>
+  <si>
+    <t>Consulta detalle item</t>
+  </si>
+  <si>
+    <t>Se ingresa a BaseApp/guitarras/2/ para ver si el item es detallado correctamente y todo va bien</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Se ingresa al chat mediante users/chat/ y se prueb que todo funcione correctamente</t>
+  </si>
+  <si>
+    <t>Deslogueo</t>
+  </si>
+  <si>
+    <t>Al hacer click en Cerrar Sesion se procede a realizar un logout</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -476,13 +476,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8">
         <v>45539</v>
@@ -600,10 +600,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8">
         <v>45539</v>
@@ -642,13 +642,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>19</v>
@@ -681,16 +681,16 @@
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="11" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8">
         <v>45539</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8">
         <v>45539</v>

--- a/Casos de Prueba/Casos de prueba.xlsx
+++ b/Casos de Prueba/Casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\Python\Coderhouse\ProyectoFinalSanchezPedro\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC74B15-DB08-41B3-886D-3493D516FAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B7365F-5DE5-4D4C-A488-0C615F536927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="8">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
@@ -774,7 +774,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="8">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>19</v>
